--- a/trabalho1.xlsx
+++ b/trabalho1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emanuelbissacotti/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEEAE49F-7C03-7440-AFCD-67A97959FFA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADDAE42-5C52-A541-B56D-C48A9724EAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{74DDC7E7-E274-2B41-AB2B-AEEBB9EC356B}"/>
   </bookViews>
@@ -208,17 +208,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -557,174 +560,176 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.1640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="95" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" ht="76" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" ht="76" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" ht="76" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
